--- a/Cadastro Produto.xlsx
+++ b/Cadastro Produto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bessa\OneDrive\Documentos\Curso PowerBI\10-25 - Curso Power BI para Iniciantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26007A40-2E5B-4783-BCE0-78237F3D9E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2164064F-49E8-4CEA-9F25-6B75068AF69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22224" yWindow="900" windowWidth="21600" windowHeight="11292" xr2:uid="{9454C02E-79CD-46AD-8FFF-BED1929451ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9454C02E-79CD-46AD-8FFF-BED1929451ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Produto" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12591" uniqueCount="3449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12591" uniqueCount="3448">
   <si>
     <t>Contoso 512MB MP3 Player E51 Silver</t>
   </si>
@@ -10380,9 +10380,6 @@
   </si>
   <si>
     <t>Water Purifier Silver</t>
-  </si>
-  <si>
-    <t>10000000.9</t>
   </si>
 </sst>
 </file>
@@ -10744,10 +10741,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F128270-D62A-47A2-B8A2-539E37B3F646}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F2519"/>
+  <dimension ref="A1:F2520"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1743" workbookViewId="0">
-      <selection activeCell="E2519" sqref="E2519"/>
+      <selection activeCell="E2520" sqref="E2520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45873,7 +45870,7 @@
         <v>68</v>
       </c>
       <c r="E1756" t="s">
-        <v>3448</v>
+        <v>2667</v>
       </c>
       <c r="F1756" t="s">
         <v>3050</v>
@@ -61121,6 +61118,9 @@
     </row>
     <row r="2519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E2519" s="1"/>
+    </row>
+    <row r="2520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2520" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F2518" xr:uid="{4F128270-D62A-47A2-B8A2-539E37B3F646}">
